--- a/exampleProblems/ch9_049/ch9_049.xlsx
+++ b/exampleProblems/ch9_049/ch9_049.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://durhamuniversity-my.sharepoint.com/personal/vsmw51_durham_ac_uk/Documents/projects/programming/2022/python/python/rdkit37/projects/simpleLiquidNMRanalysisVoila/exampleProblems/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://durhamuniversity-my.sharepoint.com/personal/vsmw51_durham_ac_uk/Documents/projects/programming/2022/python/python/rdkit37/projects/simpleNMR/exampleProblems/ch9_049/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_9DFAB9B766D6D4A00340053428BA5669BEDDD768" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB9B2A1A-5BEC-49D6-8511-5B360142F644}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="molecule" sheetId="9" r:id="rId1"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="44">
   <si>
     <t>Name</t>
   </si>
@@ -152,16 +153,22 @@
     <t>F (qd)</t>
   </si>
   <si>
-    <t>10,2</t>
-  </si>
-  <si>
-    <t>7, 1</t>
+    <t>8,8</t>
+  </si>
+  <si>
+    <t>7, 1,1</t>
+  </si>
+  <si>
+    <t>8,8,8</t>
+  </si>
+  <si>
+    <t>10,10,10,2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -584,7 +591,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -615,11 +622,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -684,8 +691,8 @@
       <c r="G2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="1">
-        <v>8</v>
+      <c r="H2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>8</v>
@@ -713,8 +720,8 @@
       <c r="G3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="1">
-        <v>8</v>
+      <c r="H3" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>8</v>
@@ -771,8 +778,8 @@
       <c r="G5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="1">
-        <v>8</v>
+      <c r="H5" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>8</v>
@@ -801,7 +808,7 @@
         <v>38</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>8</v>
@@ -869,7 +876,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1153,7 +1160,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:V35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1898,10 +1905,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:V45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A18" sqref="A18:J45"/>
     </sheetView>
   </sheetViews>
@@ -2818,7 +2825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3099,7 +3106,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3321,9 +3328,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3544,27 +3554,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44668820-0664-4E62-A660-376AF03334EF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9421959D-9476-4FEC-BDFE-1367083D3EBE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="f6191221-55a2-427d-afce-6bfcc029a585"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3589,9 +3587,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9421959D-9476-4FEC-BDFE-1367083D3EBE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44668820-0664-4E62-A660-376AF03334EF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="f6191221-55a2-427d-afce-6bfcc029a585"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/exampleProblems/ch9_049/ch9_049.xlsx
+++ b/exampleProblems/ch9_049/ch9_049.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://durhamuniversity-my.sharepoint.com/personal/vsmw51_durham_ac_uk/Documents/projects/programming/2022/python/python/rdkit37/projects/simpleNMR/exampleProblems/ch9_049/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_9DFAB9B766D6D4A00340053428BA5669BEDDD768" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB9B2A1A-5BEC-49D6-8511-5B360142F644}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_9DFAB9B766D6D4A00340053428BA5669BEDDD768" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA423374-5F6C-4B1D-84EA-06CF3FF4DEAD}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7275" yWindow="990" windowWidth="20295" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="molecule" sheetId="9" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="46">
   <si>
     <t>Name</t>
   </si>
@@ -163,6 +163,12 @@
   </si>
   <si>
     <t>10,10,10,2</t>
+  </si>
+  <si>
+    <t>smiles</t>
+  </si>
+  <si>
+    <t>NCCCCC(N)C(=O)O</t>
   </si>
 </sst>
 </file>
@@ -592,10 +598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -603,17 +609,23 @@
     <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -625,7 +637,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
@@ -3328,12 +3340,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3554,15 +3563,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9421959D-9476-4FEC-BDFE-1367083D3EBE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44668820-0664-4E62-A660-376AF03334EF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="f6191221-55a2-427d-afce-6bfcc029a585"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3587,18 +3608,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44668820-0664-4E62-A660-376AF03334EF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9421959D-9476-4FEC-BDFE-1367083D3EBE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="f6191221-55a2-427d-afce-6bfcc029a585"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/exampleProblems/ch9_049/ch9_049.xlsx
+++ b/exampleProblems/ch9_049/ch9_049.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://durhamuniversity-my.sharepoint.com/personal/vsmw51_durham_ac_uk/Documents/projects/programming/2022/python/python/rdkit37/projects/simpleNMR/exampleProblems/ch9_049/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_9DFAB9B766D6D4A00340053428BA5669BEDDD768" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA423374-5F6C-4B1D-84EA-06CF3FF4DEAD}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="11_7D48CA864AB2DFE06691C83514AAD63056BEC53E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{011A28C1-90CB-D943-8860-74233DC4356A}"/>
   <bookViews>
-    <workbookView xWindow="7275" yWindow="990" windowWidth="20295" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7280" yWindow="1000" windowWidth="20300" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="molecule" sheetId="9" r:id="rId1"/>
@@ -20,18 +20,42 @@
     <sheet name="HMBC" sheetId="8" r:id="rId5"/>
     <sheet name="C13_1D" sheetId="2" r:id="rId6"/>
     <sheet name="H1_pureshift" sheetId="3" r:id="rId7"/>
+    <sheet name="NOESY" sheetId="10" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="46">
+  <si>
+    <t>molecule</t>
+  </si>
+  <si>
+    <t>smiles</t>
+  </si>
+  <si>
+    <t>C6H14N2O2</t>
+  </si>
+  <si>
+    <t>NCCCCC(N)C(=O)O</t>
+  </si>
   <si>
     <t>Name</t>
   </si>
@@ -57,125 +81,113 @@
     <t>Method</t>
   </si>
   <si>
+    <t>A (t)</t>
+  </si>
+  <si>
+    <t>3.8..3.5</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>8,8</t>
+  </si>
+  <si>
     <t>Peaks</t>
   </si>
   <si>
-    <t>t</t>
+    <t>B (t)</t>
+  </si>
+  <si>
+    <t>3.05..2.95</t>
+  </si>
+  <si>
+    <t>C (dt)</t>
+  </si>
+  <si>
+    <t>2.0..1.8</t>
+  </si>
+  <si>
+    <t>dt</t>
+  </si>
+  <si>
+    <t>7, 1,1</t>
+  </si>
+  <si>
+    <t>D (q)</t>
+  </si>
+  <si>
+    <t>1.8..1.65</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>8,8,8</t>
+  </si>
+  <si>
+    <t>F (qd)</t>
+  </si>
+  <si>
+    <t>1.58..1.35</t>
+  </si>
+  <si>
+    <t>qd</t>
+  </si>
+  <si>
+    <t>10,10,10,2</t>
+  </si>
+  <si>
+    <t>f2 (ppm)</t>
+  </si>
+  <si>
+    <t>f1 (ppm)</t>
+  </si>
+  <si>
+    <t>Intensity</t>
+  </si>
+  <si>
+    <t>Width f2</t>
+  </si>
+  <si>
+    <t>Width f1</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Flags</t>
+  </si>
+  <si>
+    <t>Impurity/Compound</t>
+  </si>
+  <si>
+    <t>Annotation</t>
+  </si>
+  <si>
+    <t>Compound</t>
+  </si>
+  <si>
+    <t>None</t>
   </si>
   <si>
     <t>ppm</t>
   </si>
   <si>
-    <t>Intensity</t>
-  </si>
-  <si>
     <t>Width</t>
   </si>
   <si>
     <t>Area</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Flags</t>
-  </si>
-  <si>
-    <t>Impurity/Compound</t>
-  </si>
-  <si>
-    <t>Annotation</t>
-  </si>
-  <si>
-    <t>Compound</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>f2 (ppm)</t>
-  </si>
-  <si>
-    <t>f1 (ppm)</t>
-  </si>
-  <si>
-    <t>Width f2</t>
-  </si>
-  <si>
-    <t>Width f1</t>
-  </si>
-  <si>
-    <t>Volume</t>
-  </si>
-  <si>
-    <t>molecule</t>
-  </si>
-  <si>
-    <t>C6H14N2O2</t>
-  </si>
-  <si>
-    <t>dt</t>
-  </si>
-  <si>
-    <t>q</t>
-  </si>
-  <si>
-    <t>3.8..3.5</t>
-  </si>
-  <si>
-    <t>3.05..2.95</t>
-  </si>
-  <si>
-    <t>2.0..1.8</t>
-  </si>
-  <si>
-    <t>1.8..1.65</t>
-  </si>
-  <si>
-    <t>1.58..1.35</t>
-  </si>
-  <si>
-    <t>A (t)</t>
-  </si>
-  <si>
-    <t>B (t)</t>
-  </si>
-  <si>
-    <t>C (dt)</t>
-  </si>
-  <si>
-    <t>D (q)</t>
-  </si>
-  <si>
-    <t>qd</t>
-  </si>
-  <si>
-    <t>F (qd)</t>
-  </si>
-  <si>
-    <t>8,8</t>
-  </si>
-  <si>
-    <t>7, 1,1</t>
-  </si>
-  <si>
-    <t>8,8,8</t>
-  </si>
-  <si>
-    <t>10,10,10,2</t>
-  </si>
-  <si>
-    <t>smiles</t>
-  </si>
-  <si>
-    <t>NCCCCC(N)C(=O)O</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -333,6 +345,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -604,28 +620,29 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="B1" t="s">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -641,58 +658,58 @@
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="1.85546875" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" customWidth="1"/>
+    <col min="1" max="1" width="1.83203125" customWidth="1"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" customWidth="1"/>
-    <col min="6" max="6" width="6.42578125" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" customWidth="1"/>
+    <col min="6" max="6" width="6.5" customWidth="1"/>
+    <col min="7" max="7" width="7.5" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="6.140625" customWidth="1"/>
+    <col min="9" max="9" width="6.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1">
         <v>3.73</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -701,27 +718,27 @@
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1">
         <v>3.01</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E3" s="1">
         <v>2</v>
@@ -730,27 +747,27 @@
         <v>2</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1">
         <v>1.89</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E4" s="1">
         <v>2</v>
@@ -759,27 +776,27 @@
         <v>2</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="5">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="C5" s="1">
         <v>1.72</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E5" s="1">
         <v>2</v>
@@ -788,27 +805,27 @@
         <v>2</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C6" s="1">
         <v>1.48</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E6" s="1">
         <v>2</v>
@@ -817,16 +834,16 @@
         <v>2</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="5"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -837,7 +854,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="5"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -848,7 +865,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="5"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -859,7 +876,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="5"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -870,7 +887,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -892,45 +909,45 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="24">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -953,16 +970,16 @@
         <v>3.57</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="6"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -973,7 +990,7 @@
         <v>42</v>
       </c>
       <c r="D3" s="1">
-        <v>0.2</v>
+        <v>-0.2</v>
       </c>
       <c r="E3" s="1">
         <v>18.68</v>
@@ -985,16 +1002,16 @@
         <v>6.34</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="6"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1005,7 +1022,7 @@
         <v>33</v>
       </c>
       <c r="D4" s="1">
-        <v>0.2</v>
+        <v>-0.2</v>
       </c>
       <c r="E4" s="1">
         <v>8.69</v>
@@ -1017,16 +1034,16 @@
         <v>3.16</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="6"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1037,7 +1054,7 @@
         <v>29</v>
       </c>
       <c r="D5" s="1">
-        <v>0.3</v>
+        <v>-0.3</v>
       </c>
       <c r="E5" s="1">
         <v>17.059999999999999</v>
@@ -1049,16 +1066,16 @@
         <v>7.62</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="6"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1081,15 +1098,15 @@
         <v>-3.37</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13">
       <c r="A7" s="5"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1103,7 +1120,7 @@
       <c r="K7" s="6"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13">
       <c r="A8" s="5"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1117,7 +1134,7 @@
       <c r="K8" s="6"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13">
       <c r="A9" s="5"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1131,7 +1148,7 @@
       <c r="K9" s="6"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13">
       <c r="A10" s="5"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1145,7 +1162,7 @@
       <c r="K10" s="6"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -1159,10 +1176,10 @@
       <c r="K11" s="9"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13">
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13">
       <c r="M15" s="8"/>
     </row>
   </sheetData>
@@ -1176,42 +1193,42 @@
   <dimension ref="A1:V35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I14"/>
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="24">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="L1" s="2"/>
       <c r="M1" s="3"/>
@@ -1225,7 +1242,7 @@
       <c r="U1" s="3"/>
       <c r="V1" s="4"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1248,17 +1265,17 @@
         <v>24.96</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="6"/>
       <c r="U2" s="1"/>
       <c r="V2" s="6"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1281,17 +1298,17 @@
         <v>49.97</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="6"/>
       <c r="U3" s="1"/>
       <c r="V3" s="6"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -1314,17 +1331,17 @@
         <v>28.84</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="6"/>
       <c r="U4" s="1"/>
       <c r="V4" s="6"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1347,17 +1364,17 @@
         <v>4.3099999999999996</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="6"/>
       <c r="U5" s="1"/>
       <c r="V5" s="6"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -1380,17 +1397,17 @@
         <v>27.49</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="6"/>
       <c r="U6" s="1"/>
       <c r="V6" s="6"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -1413,17 +1430,17 @@
         <v>1</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="6"/>
       <c r="U7" s="1"/>
       <c r="V7" s="6"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -1446,17 +1463,17 @@
         <v>1</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="6"/>
       <c r="U8" s="1"/>
       <c r="V8" s="6"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -1479,17 +1496,17 @@
         <v>1</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="6"/>
       <c r="U9" s="1"/>
       <c r="V9" s="6"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -1512,17 +1529,17 @@
         <v>1</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="6"/>
       <c r="U10" s="1"/>
       <c r="V10" s="6"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -1545,17 +1562,17 @@
         <v>1</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="6"/>
       <c r="U11" s="1"/>
       <c r="V11" s="6"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -1578,17 +1595,17 @@
         <v>1</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="6"/>
       <c r="U12" s="1"/>
       <c r="V12" s="6"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -1611,17 +1628,17 @@
         <v>1</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="6"/>
       <c r="U13" s="1"/>
       <c r="V13" s="6"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -1644,17 +1661,17 @@
         <v>1</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="6"/>
       <c r="U14" s="1"/>
       <c r="V14" s="6"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22">
       <c r="A15" s="5"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1669,7 +1686,7 @@
       <c r="U15" s="1"/>
       <c r="V15" s="6"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22">
       <c r="A16" s="5"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1684,7 +1701,7 @@
       <c r="U16" s="1"/>
       <c r="V16" s="6"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22">
       <c r="A17" s="7"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -1699,7 +1716,7 @@
       <c r="U17" s="8"/>
       <c r="V17" s="9"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22">
       <c r="A18" s="5"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1723,7 +1740,7 @@
       <c r="U18" s="8"/>
       <c r="V18" s="9"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22">
       <c r="A19" s="5"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1734,7 +1751,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22">
       <c r="A20" s="5"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1745,7 +1762,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22">
       <c r="A21" s="5"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1756,7 +1773,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22">
       <c r="A22" s="5"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1767,7 +1784,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22">
       <c r="A23" s="5"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1778,7 +1795,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22">
       <c r="A24" s="5"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1789,7 +1806,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22">
       <c r="A25" s="5"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1800,7 +1817,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22">
       <c r="A26" s="5"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1811,7 +1828,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22">
       <c r="A27" s="5"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1822,7 +1839,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22">
       <c r="A28" s="5"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1833,7 +1850,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22">
       <c r="A29" s="5"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1844,7 +1861,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22">
       <c r="A30" s="5"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1855,7 +1872,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22">
       <c r="A31" s="5"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1866,7 +1883,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22">
       <c r="A32" s="5"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1877,7 +1894,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9">
       <c r="A33" s="7"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -1888,7 +1905,7 @@
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9">
       <c r="A34" s="5"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1899,7 +1916,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9">
       <c r="A35" s="7"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -1924,39 +1941,39 @@
       <selection activeCell="A18" sqref="A18:J45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="24">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="L1" s="2"/>
       <c r="M1" s="3"/>
@@ -1970,7 +1987,7 @@
       <c r="U1" s="3"/>
       <c r="V1" s="4"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1993,15 +2010,15 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="6"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -2024,15 +2041,15 @@
         <v>0.21</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -2055,15 +2072,15 @@
         <v>0</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -2086,15 +2103,15 @@
         <v>0.01</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -2117,15 +2134,15 @@
         <v>1.01</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -2148,15 +2165,15 @@
         <v>0.06</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -2179,15 +2196,15 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -2210,15 +2227,15 @@
         <v>0.5</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="6"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -2241,15 +2258,15 @@
         <v>2.11</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="6"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -2272,15 +2289,15 @@
         <v>0.25</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="6"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -2303,15 +2320,15 @@
         <v>0.42</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="6"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -2334,15 +2351,15 @@
         <v>0</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="6"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -2365,15 +2382,15 @@
         <v>0.01</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="6"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -2396,15 +2413,15 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="6"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -2427,15 +2444,15 @@
         <v>0.5</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="6"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -2458,15 +2475,15 @@
         <v>0.1</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="6"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="A18" s="5"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -2479,7 +2496,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="6"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="A19" s="5"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -2492,7 +2509,7 @@
       <c r="J19" s="1"/>
       <c r="K19" s="6"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="A20" s="5"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -2505,7 +2522,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="6"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="A21" s="5"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -2518,7 +2535,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="6"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11">
       <c r="A22" s="5"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -2531,7 +2548,7 @@
       <c r="J22" s="1"/>
       <c r="K22" s="6"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="A23" s="7"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -2544,7 +2561,7 @@
       <c r="J23" s="8"/>
       <c r="K23" s="9"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="A24" s="5"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -2557,7 +2574,7 @@
       <c r="J24" s="1"/>
       <c r="K24" s="6"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11">
       <c r="A25" s="5"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -2570,7 +2587,7 @@
       <c r="J25" s="1"/>
       <c r="K25" s="6"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11">
       <c r="A26" s="5"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -2583,7 +2600,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="6"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11">
       <c r="A27" s="5"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -2596,7 +2613,7 @@
       <c r="J27" s="1"/>
       <c r="K27" s="6"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11">
       <c r="A28" s="5"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -2609,7 +2626,7 @@
       <c r="J28" s="1"/>
       <c r="K28" s="6"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11">
       <c r="A29" s="5"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -2622,7 +2639,7 @@
       <c r="J29" s="1"/>
       <c r="K29" s="6"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11">
       <c r="A30" s="5"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -2635,7 +2652,7 @@
       <c r="J30" s="1"/>
       <c r="K30" s="6"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11">
       <c r="A31" s="5"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -2648,7 +2665,7 @@
       <c r="J31" s="1"/>
       <c r="K31" s="6"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11">
       <c r="A32" s="5"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -2661,7 +2678,7 @@
       <c r="J32" s="1"/>
       <c r="K32" s="6"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11">
       <c r="A33" s="5"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -2674,7 +2691,7 @@
       <c r="J33" s="1"/>
       <c r="K33" s="6"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11">
       <c r="A34" s="5"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -2687,7 +2704,7 @@
       <c r="J34" s="1"/>
       <c r="K34" s="6"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11">
       <c r="A35" s="5"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -2700,7 +2717,7 @@
       <c r="J35" s="1"/>
       <c r="K35" s="6"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11">
       <c r="A36" s="5"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -2713,7 +2730,7 @@
       <c r="J36" s="1"/>
       <c r="K36" s="6"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11">
       <c r="A37" s="5"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -2726,7 +2743,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="6"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11">
       <c r="A38" s="5"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -2739,7 +2756,7 @@
       <c r="J38" s="1"/>
       <c r="K38" s="6"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11">
       <c r="A39" s="5"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -2752,7 +2769,7 @@
       <c r="J39" s="1"/>
       <c r="K39" s="6"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11">
       <c r="A40" s="5"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -2765,7 +2782,7 @@
       <c r="J40" s="1"/>
       <c r="K40" s="6"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11">
       <c r="A41" s="5"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -2778,7 +2795,7 @@
       <c r="J41" s="1"/>
       <c r="K41" s="6"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11">
       <c r="A42" s="5"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -2791,7 +2808,7 @@
       <c r="J42" s="1"/>
       <c r="K42" s="6"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11">
       <c r="A43" s="5"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -2804,7 +2821,7 @@
       <c r="J43" s="1"/>
       <c r="K43" s="6"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11">
       <c r="A44" s="5"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -2817,7 +2834,7 @@
       <c r="J44" s="1"/>
       <c r="K44" s="6"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11">
       <c r="A45" s="7"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -2844,36 +2861,36 @@
       <selection activeCell="B6" sqref="B3:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="24">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -2890,15 +2907,15 @@
         <v>2520.89</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -2915,15 +2932,15 @@
         <v>2812.18</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -2940,15 +2957,15 @@
         <v>2383.0100000000002</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -2965,15 +2982,15 @@
         <v>9387.2800000000007</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -2990,15 +3007,15 @@
         <v>8261.02</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -3015,15 +3032,15 @@
         <v>7430.15</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="5"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -3034,7 +3051,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="5"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -3045,7 +3062,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="5"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -3056,7 +3073,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="5"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -3067,7 +3084,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -3078,7 +3095,7 @@
       <c r="H12" s="8"/>
       <c r="I12" s="9"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="5"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -3089,7 +3106,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="5"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -3100,7 +3117,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="7"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -3125,36 +3142,36 @@
       <selection activeCell="A7" sqref="A7:G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="24">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -3171,15 +3188,15 @@
         <v>9.57</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -3196,15 +3213,15 @@
         <v>14.49</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -3221,15 +3238,15 @@
         <v>13.64</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -3246,15 +3263,15 @@
         <v>16.45</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -3271,15 +3288,15 @@
         <v>46.81</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="5"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -3290,7 +3307,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="5"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -3301,7 +3318,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="5"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -3312,7 +3329,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="5"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -3323,7 +3340,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -3339,13 +3356,55 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEFA702E-2F0B-4D4D-B9BA-D624BCB74193}">
+  <dimension ref="A1:K1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11" ht="24">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100155B07917A39914F9664B9093559A33D" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fbeff89c08116489e82681c46e7ae15d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f6191221-55a2-427d-afce-6bfcc029a585" xmlns:ns4="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a905948312a67a3512ded1d64743b24d" ns3:_="" ns4:_="">
     <xsd:import namespace="f6191221-55a2-427d-afce-6bfcc029a585"/>
@@ -3562,7 +3621,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -3571,24 +3630,13 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44668820-0664-4E62-A660-376AF03334EF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="f6191221-55a2-427d-afce-6bfcc029a585"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCEF473A-5319-4ED2-888F-44217AC86176}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3607,10 +3655,27 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9421959D-9476-4FEC-BDFE-1367083D3EBE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44668820-0664-4E62-A660-376AF03334EF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="f6191221-55a2-427d-afce-6bfcc029a585"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>